--- a/biology/Médecine/Prostanoïde/Prostanoïde.xlsx
+++ b/biology/Médecine/Prostanoïde/Prostanoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostano%C3%AFde</t>
+          <t>Prostanoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les prostanoïdes sont des eicosanoïdes synthétisés par l'entremise d'un groupe d'enzymes, les cyclooxygénases (COX). Les prostaglandines, les prostacyclines et les thromboxanes en font partie.
 On distingue les prostanoïdes selon l'acide gras dont ils dérivent :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostano%C3%AFde</t>
+          <t>Prostanoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les prostanoïdes jouent un rôle fondamental comme médiateurs dans des processus variés, entre autres : l'inflammation, l'agrégation plaquettaire, la vasoconstriction, la vasodilatation, la régulation du transport d'eau et d'ions, la motilité gastro-intestinale et l'activité neuronale.
  Portail de la biochimie   Portail de la chimie   Portail de la médecine                   </t>
